--- a/kmeansVectorQuantization/Results.xlsx
+++ b/kmeansVectorQuantization/Results.xlsx
@@ -9,14 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Chart1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -854,12 +853,12 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="331080848"/>
-        <c:axId val="331083984"/>
+        <c:axId val="298654832"/>
+        <c:axId val="298671296"/>
         <c:extLst/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="331080848"/>
+        <c:axId val="298654832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -901,7 +900,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331083984"/>
+        <c:crossAx val="298671296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -909,7 +908,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="331083984"/>
+        <c:axId val="298671296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="2"/>
@@ -961,7 +960,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331080848"/>
+        <c:crossAx val="298654832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1597,7 +1596,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="96" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1608,7 +1607,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9296400" cy="6070600"/>
+    <xdr:ext cx="9296797" cy="6072188"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -1896,8 +1895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
